--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3735.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3735.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.206393345381503</v>
+        <v>2.734148025512695</v>
       </c>
       <c r="B1">
-        <v>2.236692957579247</v>
+        <v>2.263491630554199</v>
       </c>
       <c r="C1">
-        <v>5.219614276137794</v>
+        <v>1.231330513954163</v>
       </c>
       <c r="D1">
-        <v>3.259677062839366</v>
+        <v>1.304223775863647</v>
       </c>
       <c r="E1">
-        <v>1.194205609617607</v>
+        <v>1.50303316116333</v>
       </c>
     </row>
   </sheetData>
